--- a/output/combinedrepos/combinedrepos-flaw-fiaf.xlsx
+++ b/output/combinedrepos/combinedrepos-flaw-fiaf.xlsx
@@ -841,7 +841,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>php:S905</t>
+          <t>B-php:S905</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1094,7 +1094,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>javascript:S2259</t>
+          <t>B-javascript:S2259</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1347,7 +1347,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>php:S836</t>
+          <t>B-php:S836</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1600,7 +1600,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>php:S2201</t>
+          <t>B-php:S2201</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1853,7 +1853,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>php:S2068</t>
+          <t>V-php:S2068</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2106,7 +2106,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>php:S1764</t>
+          <t>B-php:S1764</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2359,7 +2359,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>javascript:S2137</t>
+          <t>B-javascript:S2137</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2612,7 +2612,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>javascript:DuplicatePropertyName</t>
+          <t>B-javascript:DuplicatePropertyName</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2865,7 +2865,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>javascript:S2819</t>
+          <t>V-javascript:S2819</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3118,7 +3118,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>javascript:S3981</t>
+          <t>B-javascript:S3981</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3371,7 +3371,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>javascript:S2583</t>
+          <t>B-javascript:S2583</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3624,7 +3624,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>javascript:S3812</t>
+          <t>B-javascript:S3812</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3877,7 +3877,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>javascript:S905</t>
+          <t>B-javascript:S905</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4130,7 +4130,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>javascript:S3001</t>
+          <t>B-javascript:S3001</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4383,7 +4383,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>javascript:S3403</t>
+          <t>B-javascript:S3403</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4636,7 +4636,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>php:S2964</t>
+          <t>V-php:S2964</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4889,7 +4889,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>javascript:S2201</t>
+          <t>B-javascript:S2201</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5142,7 +5142,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>php:S1848</t>
+          <t>B-php:S1848</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5395,7 +5395,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>php:S1656</t>
+          <t>B-php:S1656</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5648,7 +5648,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>php:S3923</t>
+          <t>B-php:S3923</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5901,7 +5901,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Web:BoldAndItalicTagsCheck</t>
+          <t>B-Web:BoldAndItalicTagsCheck</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -6154,7 +6154,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>javascript:S2757</t>
+          <t>B-javascript:S2757</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -6407,7 +6407,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>php:S1763</t>
+          <t>B-php:S1763</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -6660,7 +6660,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>javascript:S2873</t>
+          <t>B-javascript:S2873</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -6913,7 +6913,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>javascript:S1143</t>
+          <t>B-javascript:S1143</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -7166,7 +7166,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>javascript:UnreachableCode</t>
+          <t>B-javascript:UnreachableCode</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -7419,7 +7419,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>php:S2053</t>
+          <t>V-php:S2053</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -7672,7 +7672,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>javascript:S3785</t>
+          <t>B-javascript:S3785</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -7925,7 +7925,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>php:S1862</t>
+          <t>B-php:S1862</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -8178,7 +8178,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Web:DoctypePresenceCheck</t>
+          <t>B-Web:DoctypePresenceCheck</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -8431,7 +8431,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Web:FieldsetWithoutLegendCheck</t>
+          <t>B-Web:FieldsetWithoutLegendCheck</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -8684,7 +8684,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>php:S4433</t>
+          <t>V-php:S4433</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -8937,7 +8937,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>php:S2757</t>
+          <t>B-php:S2757</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -9190,7 +9190,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Web:PageWithoutTitleCheck</t>
+          <t>B-Web:PageWithoutTitleCheck</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -9443,7 +9443,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>javascript:S1656</t>
+          <t>B-javascript:S1656</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -9696,7 +9696,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>php:S4830</t>
+          <t>V-php:S4830</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -9949,7 +9949,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Web:ImgWithoutAltCheck</t>
+          <t>B-Web:ImgWithoutAltCheck</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -10202,7 +10202,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>javascript:S4043</t>
+          <t>B-javascript:S4043</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -10455,7 +10455,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>php:S1145</t>
+          <t>B-php:S1145</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -10708,7 +10708,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Web:UnsupportedTagsInHtml5Check</t>
+          <t>B-Web:UnsupportedTagsInHtml5Check</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -10961,7 +10961,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Web:FrameWithoutTitleCheck</t>
+          <t>B-Web:FrameWithoutTitleCheck</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -11214,7 +11214,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>php:S4423</t>
+          <t>V-php:S4423</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -11467,7 +11467,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>php:S3699</t>
+          <t>B-php:S3699</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -11720,7 +11720,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>javascript:S2189</t>
+          <t>B-javascript:S2189</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -11973,7 +11973,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>php:S2115</t>
+          <t>V-php:S2115</t>
         </is>
       </c>
       <c r="B46" t="n">
